--- a/data/fastidious.xlsx
+++ b/data/fastidious.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Login" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="login" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" iterate="0" iterateCount="100" iterateDelta="0.001" refMode="A1"/>
@@ -67,7 +67,10 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -379,60 +382,162 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D2" activeCellId="0" pane="topLeft" sqref="D2"/>
+      <selection activeCell="B9" activeCellId="0" pane="topLeft" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="2" width="17.09"/>
-    <col customWidth="1" max="2" min="2" style="2" width="14.59"/>
-    <col customWidth="1" max="3" min="3" style="2" width="18.77"/>
-    <col customWidth="1" max="4" min="4" style="2" width="17.78"/>
-    <col customWidth="1" max="1025" min="5" style="2" width="11.52"/>
+    <col customWidth="1" max="1" min="1" style="3" width="23.89"/>
+    <col customWidth="1" max="2" min="2" style="3" width="14.59"/>
+    <col customWidth="1" max="3" min="3" style="3" width="18.77"/>
+    <col customWidth="1" max="4" min="4" style="3" width="17.78"/>
+    <col customWidth="1" max="1025" min="5" style="3" width="11.52"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="12.8" r="1" s="3">
-      <c r="A1" s="2" t="inlineStr">
+    <row customHeight="1" ht="12.8" r="1" s="4">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>NazivTesta</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>UserName</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>Password</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>TestResults</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="2" s="3">
-      <c r="A2" s="2" t="inlineStr">
+    <row customHeight="1" ht="12.8" r="2" s="4">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>testLogInAdmin</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>fastidious</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>fastidious</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="3" s="4">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>testBlankLogIn</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="4" s="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>testOnlyUsername</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="5" s="4">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>testOnlyPassword</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="6" s="4">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>testWrongUsername</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>wrongusername</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>fastidious</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="7" s="4">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>testWrongPassword</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>fastidious</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>wrongpassword</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="8" s="4">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>testWrongUserAndPass</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>wrongusername</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>wrongpassword</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>

--- a/data/fastidious.xlsx
+++ b/data/fastidious.xlsx
@@ -67,10 +67,7 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
+  <cellXfs count="4">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -382,162 +379,174 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B9" activeCellId="0" pane="topLeft" sqref="B9"/>
+      <selection activeCell="A9" activeCellId="0" pane="topLeft" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="23.89"/>
-    <col customWidth="1" max="2" min="2" style="3" width="14.59"/>
-    <col customWidth="1" max="3" min="3" style="3" width="18.77"/>
-    <col customWidth="1" max="4" min="4" style="3" width="17.78"/>
-    <col customWidth="1" max="1025" min="5" style="3" width="11.52"/>
+    <col customWidth="1" max="1" min="1" style="2" width="23.88"/>
+    <col customWidth="1" max="2" min="2" style="2" width="14.59"/>
+    <col customWidth="1" max="3" min="3" style="2" width="18.77"/>
+    <col customWidth="1" max="4" min="4" style="2" width="17.78"/>
+    <col customWidth="1" max="1025" min="5" style="2" width="11.52"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="12.8" r="1" s="4">
-      <c r="A1" s="3" t="inlineStr">
+    <row customHeight="1" ht="12.8" r="1" s="3">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>NazivTesta</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>UserName</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Password</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>TestResults</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="2" s="4">
-      <c r="A2" s="3" t="inlineStr">
+    <row customHeight="1" ht="12.8" r="2" s="3">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>testLogInAdmin</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>fastidious</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>fastidious</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="3" s="4">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="3" s="3">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>testBlankLogIn</t>
         </is>
       </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="4" s="4">
-      <c r="A4" s="3" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="4" s="3">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>testOnlyUsername</t>
         </is>
       </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="5" s="4">
-      <c r="A5" s="3" t="inlineStr">
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="5" s="3">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>testOnlyPassword</t>
         </is>
       </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="6" s="4">
-      <c r="A6" s="3" t="inlineStr">
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="6" s="3">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>testWrongUsername</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B6" s="2" t="inlineStr">
         <is>
           <t>wrongusername</t>
         </is>
       </c>
-      <c r="C6" s="3" t="inlineStr">
+      <c r="C6" s="2" t="inlineStr">
         <is>
           <t>fastidious</t>
         </is>
       </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="7" s="4">
-      <c r="A7" s="3" t="inlineStr">
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="7" s="3">
+      <c r="A7" s="2" t="inlineStr">
         <is>
           <t>testWrongPassword</t>
         </is>
       </c>
-      <c r="B7" s="3" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>fastidious</t>
         </is>
       </c>
-      <c r="C7" s="3" t="inlineStr">
+      <c r="C7" s="2" t="inlineStr">
         <is>
           <t>wrongpassword</t>
         </is>
       </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="8" s="4">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="8" s="3">
+      <c r="A8" s="2" t="inlineStr">
         <is>
           <t>testWrongUserAndPass</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B8" s="2" t="inlineStr">
         <is>
           <t>wrongusername</t>
         </is>
       </c>
-      <c r="C8" s="3" t="inlineStr">
+      <c r="C8" s="2" t="inlineStr">
         <is>
           <t>wrongpassword</t>
         </is>
       </c>
-      <c r="D8" s="3" t="inlineStr">
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="9" s="3">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>testInOutInOut</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>

--- a/data/fastidious.xlsx
+++ b/data/fastidious.xlsx
@@ -1,60 +1,67 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="login" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="login" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1" iterate="0" iterateCount="100" iterateDelta="0.0001" refMode="A1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
-  <si>
-    <t>NazivTesta</t>
-  </si>
-  <si>
-    <t>UserName</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>TestResult</t>
-  </si>
-  <si>
-    <t>testLogInAdmin</t>
-  </si>
-  <si>
-    <t>fastidious</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>fast</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
-    <font>
-      <sz val="10"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="7">
+    <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <color rgb="FFFFC66D"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <charset val="1"/>
+      <family val="0"/>
+      <color rgb="FFFFC66D"/>
+      <sz val="10"/>
+    </font>
+    <font>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -69,23 +76,54 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="6">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+  <cellXfs count="10">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="3" name="Comma" xfId="1"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="2"/>
+    <cellStyle builtinId="4" name="Currency" xfId="3"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
+    <cellStyle builtinId="5" name="Percent" xfId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -373,61 +411,170 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A8" activeCellId="0" pane="topLeft" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col min="1" max="1" width="14" style="1" customWidth="1"/>
-    <col min="2" max="1025" width="11.5703125" style="1" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="5" width="24.17"/>
+    <col customWidth="1" max="2" min="2" style="5" width="39.04"/>
+    <col customWidth="1" max="3" min="3" style="5" width="39.45"/>
+    <col customWidth="1" max="1025" min="4" style="5" width="11.57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
+    <row customHeight="1" ht="12.75" r="1" s="6">
+      <c r="A1" s="5" t="inlineStr">
+        <is>
+          <t>NazivTesta</t>
+        </is>
+      </c>
+      <c r="B1" s="5" t="inlineStr">
+        <is>
+          <t>UserName</t>
+        </is>
+      </c>
+      <c r="C1" s="5" t="inlineStr">
+        <is>
+          <t>Password</t>
+        </is>
+      </c>
+      <c r="D1" s="5" t="inlineStr">
+        <is>
+          <t>TestResult</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.75" r="2" s="6">
+      <c r="A2" s="5" t="inlineStr">
+        <is>
+          <t>testLogInAdmin</t>
+        </is>
+      </c>
+      <c r="B2" s="5" t="inlineStr">
+        <is>
+          <t>fastidious</t>
+        </is>
+      </c>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>fastidious</t>
+        </is>
+      </c>
+      <c r="D2" s="5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="3" s="6">
+      <c r="A3" s="7" t="inlineStr">
+        <is>
+          <t>testIncorrectUsername</t>
+        </is>
+      </c>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>fast</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>fastidious</t>
+        </is>
+      </c>
+      <c r="D3" s="5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="4" s="6">
+      <c r="A4" s="8" t="inlineStr">
+        <is>
+          <t>testIncorrectPassword</t>
+        </is>
+      </c>
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>fastidious</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>fast</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="5" s="6">
+      <c r="A5" s="7" t="inlineStr">
+        <is>
+          <t>testNoInfo</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="6" s="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>testNoPassword</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>aaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="7" s="6">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>testNoUsername</t>
+        </is>
+      </c>
+      <c r="C7" s="9" t="inlineStr">
+        <is>
+          <t>aaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="1" verticalDpi="300"/>
+  <headerFooter differentFirst="0" differentOddEven="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>